--- a/data/trans_dic/P28A_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28A_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más tabaco respecto al último mes</t>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,24; 47,28</t>
+          <t>6,65; 16,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 26,59</t>
+          <t>1,48; 8,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 23,73</t>
+          <t>1,77; 9,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 15,88</t>
+          <t>0,57; 7,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,86; 47,21</t>
+          <t>5,28; 13,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,17; 33,85</t>
+          <t>3,84; 11,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,51</t>
+          <t>2,4; 8,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 16,04</t>
+          <t>0,8; 5,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,87; 43,98</t>
+          <t>7,15; 13,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 26,73</t>
+          <t>3,38; 8,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 17,44</t>
+          <t>2,75; 7,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 13,05</t>
+          <t>1,26; 4,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,31; 43,0</t>
+          <t>3,46; 13,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,33; 33,78</t>
+          <t>4,6; 14,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 14,95</t>
+          <t>0,74; 7,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 13,5</t>
+          <t>0,54; 6,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,33; 45,59</t>
+          <t>5,15; 15,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 30,38</t>
+          <t>2,13; 8,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,82; 25,69</t>
+          <t>2,03; 8,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 20,49</t>
+          <t>0,54; 5,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,52; 39,64</t>
+          <t>5,44; 12,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 27,71</t>
+          <t>4,18; 10,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 17,25</t>
+          <t>2,03; 6,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 13,3</t>
+          <t>0,91; 4,53</t>
         </is>
       </c>
     </row>
@@ -936,17 +937,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +957,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,88</t>
+          <t>0,0; 22,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 52,86</t>
+          <t>3,19; 24,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 45,42</t>
+          <t>2,6; 23,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,37; 50,59</t>
+          <t>2,99; 25,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 45,45</t>
+          <t>2,14; 20,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 35,74</t>
+          <t>2,75; 17,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 32,5</t>
+          <t>1,12; 13,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 41,04</t>
+          <t>1,53; 14,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 28,41</t>
+          <t>1,04; 12,66</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,82; 38,4</t>
+          <t>5,85; 12,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 25,27</t>
+          <t>3,2; 8,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 17,84</t>
+          <t>1,76; 6,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,58</t>
+          <t>0,88; 4,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,3; 41,59</t>
+          <t>6,47; 12,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 27,82</t>
+          <t>4,06; 9,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 20,26</t>
+          <t>3,49; 8,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 16,77</t>
+          <t>1,46; 4,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,23; 37,6</t>
+          <t>7,07; 11,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 24,32</t>
+          <t>4,22; 7,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,31</t>
+          <t>3,14; 6,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,46</t>
+          <t>1,54; 4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>40657</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17582</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16530</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10735</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36923</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34627</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19635</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9299</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>77580</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>52210</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36165</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20034</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24325; 61473</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6347; 35912</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6488; 33400</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2165; 29105</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22965; 56627</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19521; 56766</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10086; 35268</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3266; 22775</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57317; 107304</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31730; 78214</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21624; 60325</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9898; 38508</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22336</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31690</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9723</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7255</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32295</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19554</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16517</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>54631</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>51243</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26239</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14755</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10533; 42548</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16542; 53385</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2360; 24596</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1736; 20680</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18042; 52677</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9019; 37735</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6865; 29986</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1806; 17045</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>35589; 78660</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32718; 79409</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13344; 42991</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5981; 29815</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3271</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9601</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9078</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9440</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6772</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12872</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9078</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9440</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6772</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19400</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2637; 20464</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2627; 24159</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2440; 20394</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1770; 16854</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4607; 29327</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2275; 27464</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2469; 22812</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1744; 21295</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>66265</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49272</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26253</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17990</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>78819</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>63260</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45592</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23571</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>145084</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>112531</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>71845</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41561</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44205; 92350</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28499; 74581</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13454; 47639</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6956; 38075</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>56148; 107945</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>41955; 93178</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29364; 67499</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12023; 40065</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>114847; 184739</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>81114; 149692</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50396; 99160</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24933; 66248</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>